--- a/TICKET/PLAN/REQUEST.xlsx
+++ b/TICKET/PLAN/REQUEST.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>프로젝트 요구분석서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,15 +105,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공연에 대한 상세 정보와 날짜/시간 선택창과 선택된 일정의 캐스팅, 예매하기 버튼으로 구성된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공연에 대한 상세 정보는 공연 장소, 기간, 시간, 관람 연령 등의 정보로 이루어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜와 시간을 선택하면 해당 일정 캐스팅을 출력하고 예매하기 버튼이 활성화 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,19 +118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택된 일정을 수정할 수 있고, 수정되면 해당하는 좌석 배치도가 화면에 보여진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석 배치도,등급 별 잔여좌석 수는 갱신되어질때마다 서버에서 좌석 현황을 받아 출력된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자가 좌석을 선택하면 좌석 정보가 선택좌석 리스트에 추가되고 다시 해당 좌석을 선택하면 리스트에서 제거된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로고침 버튼을 누르면 좌석 배치도,등급 별 잔여좌석 수가 갱신된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,22 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 일정의 공연 정보와 좌석 정보, 결제 총 가격, 예매(결제)하기/취소 버튼으로 구성된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자는 선택한 정보를 확인하고 결제 혹은 취소를 선택할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소를 선택하면 공연 상세 정보 페이지로 돌아간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[6]
 기술 및 UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +153,59 @@
   </si>
   <si>
     <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 오픈 여부와 클라이언트 접속 여부를 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 연결되면 랜덤 공연 목록을 전송한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 요청하는 데이터를 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 회원 정보, 예매 정보를 전달받아 DB에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면
+구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연에 대한 상세 정보와 날짜 선택창과 선택된 일정에 대한 예매하기 버튼으로 구성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜를 선택하고 예매하기 버튼을 누르면 공연 예매 페이지로 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석 배치도,등급 별 잔여좌석 수는 서버에서 좌석 현황을 받아 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 일정의 공연 정보와 좌석 정보,예매(결제)하기/이전으로 버튼으로 구성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 선택한 정보를 확인하고 결제하거나 이전으로 돌아갈 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,23 +310,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,299 +622,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="120.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="31.5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="33">
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="33">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="33">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="33">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="33">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="33">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="33">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="33">
-      <c r="A14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="33">
-      <c r="A17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A10:A13"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
